--- a/testdata/testDataCucumber.xlsx
+++ b/testdata/testDataCucumber.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2318626\eclipse-workspace\Hackathon 1\Hackathon_NewBikes\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2318626\eclipse-workspace\2318626_hackathonProject\Hackathon_NewBikes\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3769FF-D40E-416C-8258-327AEB82235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C51A3EB-79C4-45B6-87A0-69EC410D048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{61C9D010-1891-4BCB-B97E-10940CA76CAF}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Email</t>
   </si>
   <si>
-    <t>bhtyuioij@gmail.com</t>
+    <t>abcc#%@gmail.com</t>
   </si>
   <si>
-    <t>jvfytdyhjj@gmail.com</t>
+    <t>xyz198*&amp;^@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,12 +434,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
